--- a/stock_review.xlsx
+++ b/stock_review.xlsx
@@ -1,85 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fachu/Desktop/WeeklyStock/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE9A3DB-5AA7-7346-A1E5-D8F4CF5D0EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="2024-11-19" sheetId="3" r:id="rId2"/>
-    <sheet name="2024-11-26" sheetId="2" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-11-19" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-11-26" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>StartPrice</t>
-  </si>
-  <si>
-    <t>2059</t>
-  </si>
-  <si>
-    <t>2330</t>
-  </si>
-  <si>
-    <t>2357</t>
-  </si>
-  <si>
-    <t>2414</t>
-  </si>
-  <si>
-    <t>2545</t>
-  </si>
-  <si>
-    <t>3037</t>
-  </si>
-  <si>
-    <t>3454</t>
-  </si>
-  <si>
-    <t>6024</t>
-  </si>
-  <si>
-    <t>6515</t>
-  </si>
-  <si>
-    <t>6807</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Heiti TC"/>
+      <charset val="136"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="Heiti TC"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -98,21 +52,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -400,179 +413,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F2E5F7-43F1-9645-85F3-F90E32B760EE}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="C1" sqref="C1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>StartPrice</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2059</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1445</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+      <c r="C2" t="n">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2330</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1010</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+      <c r="C3" t="n">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2357</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>617</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+      <c r="C4" t="n">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2414</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>38.5</v>
       </c>
+      <c r="C5" t="n">
+        <v>38.65</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="A1" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>StartPrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2059</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1445</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2330</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1010</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2357</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>617</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2414</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>38.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2545</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3037</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>158.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3454</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6024</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>58.6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6515</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>1280</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>90.4</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>6807</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.40000000000001</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/stock_review.xlsx
+++ b/stock_review.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-11-19" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-11-26" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-11-27" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -656,4 +657,55 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>StartPrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>114.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/stock_review.xlsx
+++ b/stock_review.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-11-19" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-11-26" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-11-27" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-12-01" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -708,4 +709,75 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>StartPrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2302</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6005</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8499</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>120.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/stock_review.xlsx
+++ b/stock_review.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-11-26" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-11-27" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-12-01" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-12-02" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -780,4 +781,115 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>StartPrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2302</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3592</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5515</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>6472</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6670</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6805</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>8467</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>291.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8499</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/stock_review.xlsx
+++ b/stock_review.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-11-27" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-12-01" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-12-02" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-12-03" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -892,4 +893,175 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>StartPrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2302</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>19.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2395</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2472</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2880</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>26.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2883</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>17.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2885</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>34.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3380</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>38.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3592</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3622</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>73.59999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5515</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>28.15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5706</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6005</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>6472</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>847</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/stock_review.xlsx
+++ b/stock_review.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-12-01" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-12-02" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-12-03" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-12-12" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1064,4 +1065,115 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>StartPrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2308</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2429</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>32.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2454</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2496</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>80.59999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3019</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4560</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>36.65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6526</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6805</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/stock_review.xlsx
+++ b/stock_review.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-12-02" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-12-03" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-12-12" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2024-12-21" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1176,4 +1177,55 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>StartPrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5243</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>70.40000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5522</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>